--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1903.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1903.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE18F0B-6FCE-4A83-BA61-68AD7D275F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9BEB3C-0C25-48E0-B0DB-60E92373CD7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
+    <workbookView xWindow="30" yWindow="1065" windowWidth="38370" windowHeight="21690" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="179">
   <si>
     <t>губ</t>
   </si>
@@ -574,12 +569,6 @@
   </si>
   <si>
     <t>v-чс</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>221671]</t>
   </si>
 </sst>
 </file>
@@ -589,7 +578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -668,6 +657,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,12 +978,12 @@
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.15625" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +996,7 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1010,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1024,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1038,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1052,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1066,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +1080,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1094,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1108,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1122,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1136,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1160,7 +1150,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1174,7 +1164,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1188,7 +1178,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1192,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1216,7 +1206,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1230,7 +1220,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1244,7 +1234,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1258,7 +1248,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1272,7 +1262,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1286,7 +1276,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1300,7 +1290,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1314,7 +1304,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1328,7 +1318,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1332,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1356,7 +1346,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1370,7 +1360,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1374,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1398,7 +1388,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1412,7 +1402,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1416,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +1430,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1454,7 +1444,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1468,7 +1458,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1482,7 +1472,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1496,7 +1486,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1510,7 +1500,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1524,7 +1514,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1538,7 +1528,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1552,7 +1542,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1566,7 +1556,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1580,7 +1570,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1594,7 +1584,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1608,7 +1598,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1622,7 +1612,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1636,7 +1626,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1650,7 +1640,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1664,7 +1654,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1678,7 +1668,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1692,7 +1682,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1706,7 +1696,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1720,7 +1710,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1734,7 +1724,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1748,7 +1738,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1762,7 +1752,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1776,7 +1766,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1790,7 +1780,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1804,7 +1794,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1818,7 +1808,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1832,7 +1822,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1846,7 +1836,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1860,7 +1850,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1874,7 +1864,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1888,7 +1878,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1902,7 +1892,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1916,7 +1906,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1930,7 +1920,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1944,7 +1934,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1958,7 +1948,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1972,7 +1962,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1986,7 +1976,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2000,7 +1990,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2011,7 +2001,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2022,7 +2012,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2044,39 +2034,39 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK65" sqref="AK65"/>
+      <selection pane="bottomRight" activeCell="AG74" sqref="AG74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.83984375" customWidth="1"/>
-    <col min="2" max="2" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.62890625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.68359375" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.20703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.68359375" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="8.83984375" style="10"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2171,7 +2161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>80</v>
       </c>
@@ -2276,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>81</v>
       </c>
@@ -2381,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -2486,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>83</v>
       </c>
@@ -2591,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
@@ -2696,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -2801,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2906,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -3011,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -3116,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>85</v>
       </c>
@@ -3221,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -3326,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -3431,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>150</v>
       </c>
@@ -3536,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -3641,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>86</v>
       </c>
@@ -3746,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>87</v>
       </c>
@@ -3851,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>155</v>
       </c>
@@ -3956,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4061,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4166,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -4271,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
@@ -4376,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>92</v>
       </c>
@@ -4481,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>93</v>
       </c>
@@ -4586,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
@@ -4691,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>95</v>
       </c>
@@ -4796,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>96</v>
       </c>
@@ -4901,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>151</v>
       </c>
@@ -5006,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>97</v>
       </c>
@@ -5111,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
@@ -5216,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -5321,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -5426,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -5531,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
@@ -5636,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
@@ -5741,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -5846,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -5951,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
@@ -6056,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>99</v>
       </c>
@@ -6161,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
@@ -6266,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>100</v>
       </c>
@@ -6371,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>101</v>
       </c>
@@ -6476,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>102</v>
       </c>
@@ -6581,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
@@ -6686,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
@@ -6791,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
@@ -6896,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
@@ -7001,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
@@ -7106,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
@@ -7211,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>103</v>
       </c>
@@ -7316,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
@@ -7346,14 +7336,14 @@
         <v>3357</v>
       </c>
       <c r="K51" s="7">
-        <v>3368</v>
+        <v>3363</v>
       </c>
       <c r="L51" s="7">
         <v>6720</v>
       </c>
       <c r="M51" s="9">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
         <v>2644</v>
@@ -7421,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
@@ -7526,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>104</v>
       </c>
@@ -7631,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>105</v>
       </c>
@@ -7736,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
@@ -7841,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
@@ -7946,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
@@ -8051,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>106</v>
       </c>
@@ -8156,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>107</v>
       </c>
@@ -8261,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>108</v>
       </c>
@@ -8366,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>109</v>
       </c>
@@ -8471,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>62</v>
       </c>
@@ -8576,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>110</v>
       </c>
@@ -8681,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>111</v>
       </c>
@@ -8786,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
@@ -8891,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>112</v>
       </c>
@@ -8996,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>113</v>
       </c>
@@ -9101,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>68</v>
       </c>
@@ -9206,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>114</v>
       </c>
@@ -9311,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>115</v>
       </c>
@@ -9416,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>116</v>
       </c>
@@ -9495,7 +9485,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z71" s="7" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AA71" s="7" t="s">
         <v>152</v>
@@ -9521,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>117</v>
       </c>
@@ -9626,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>118</v>
       </c>
@@ -9731,12 +9721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B74" s="3">
-        <v>181591</v>
+        <v>161591</v>
       </c>
       <c r="C74" s="3">
         <v>3874</v>
@@ -9836,7 +9826,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>120</v>
       </c>
@@ -9941,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>156</v>
       </c>
@@ -10046,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>121</v>
       </c>
@@ -10151,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>122</v>
       </c>
@@ -10256,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>123</v>
       </c>
@@ -10361,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>124</v>
       </c>
@@ -10466,7 +10456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>125</v>
       </c>
@@ -10571,7 +10561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>126</v>
       </c>
@@ -10676,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>127</v>
       </c>
@@ -10781,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>128</v>
       </c>
@@ -10886,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>129</v>
       </c>
@@ -10991,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>154</v>
       </c>
@@ -11096,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>130</v>
       </c>
@@ -11201,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>131</v>
       </c>
@@ -11306,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>132</v>
       </c>
@@ -11411,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>133</v>
       </c>
@@ -11516,7 +11506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>134</v>
       </c>
@@ -11621,7 +11611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>135</v>
       </c>
@@ -11726,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>136</v>
       </c>
@@ -11831,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>137</v>
       </c>
@@ -11936,7 +11926,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:33">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>138</v>
       </c>
@@ -12041,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:33">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>139</v>
       </c>
@@ -12146,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:33">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>153</v>
       </c>
@@ -12251,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:33">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>140</v>
       </c>
@@ -12356,7 +12346,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>141</v>
       </c>
@@ -12461,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>142</v>
       </c>
@@ -12566,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>143</v>
       </c>
@@ -12671,7 +12661,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>144</v>
       </c>
@@ -12776,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>145</v>
       </c>
@@ -12881,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>146</v>
       </c>
@@ -12986,12 +12976,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B105" s="3">
-        <v>8678509</v>
+      <c r="B105" s="14">
+        <v>8728509</v>
       </c>
       <c r="C105" s="3">
         <v>172306</v>
@@ -13080,7 +13070,7 @@
       <c r="AD105" s="7"/>
       <c r="AE105" s="13">
         <f t="shared" si="15"/>
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AF105" s="13">
         <f t="shared" si="16"/>
@@ -13091,12 +13081,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:33">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="3">
-        <v>25392792</v>
+      <c r="B106" s="14">
+        <v>25442792</v>
       </c>
       <c r="C106" s="3">
         <v>910392</v>
@@ -13169,8 +13159,8 @@
         <f t="shared" si="13"/>
         <v>-50254</v>
       </c>
-      <c r="Z106" s="7" t="s">
-        <v>180</v>
+      <c r="Z106" s="7">
+        <v>224671</v>
       </c>
       <c r="AA106" s="7">
         <v>206346</v>
@@ -13178,14 +13168,14 @@
       <c r="AB106" s="7">
         <v>459101</v>
       </c>
-      <c r="AC106" s="9" t="e">
+      <c r="AC106" s="9">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>-28084</v>
       </c>
       <c r="AD106" s="7"/>
       <c r="AE106" s="13">
         <f t="shared" si="15"/>
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AF106" s="13">
         <f t="shared" si="16"/>
@@ -13196,12 +13186,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:33">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="3">
-        <v>143798185</v>
+      <c r="B107" s="14">
+        <v>143848185</v>
       </c>
       <c r="C107" s="3">
         <v>6322613</v>
@@ -13290,7 +13280,7 @@
       <c r="AD107" s="7"/>
       <c r="AE107" s="13">
         <f t="shared" ref="AE107" si="18">B107-H107-T107</f>
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="AF107" s="13">
         <f t="shared" ref="AF107" si="19">C107-L107-X107</f>
@@ -13301,77 +13291,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:33">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE108" s="13"/>
       <c r="AF108" s="13"/>
       <c r="AG108" s="13"/>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE109" s="13"/>
       <c r="AF109" s="13"/>
       <c r="AG109" s="13"/>
     </row>
-    <row r="110" spans="1:33">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE110" s="13"/>
       <c r="AF110" s="13"/>
       <c r="AG110" s="13"/>
     </row>
-    <row r="111" spans="1:33">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE111" s="13"/>
       <c r="AF111" s="13"/>
       <c r="AG111" s="13"/>
     </row>
-    <row r="112" spans="1:33">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE112" s="13"/>
       <c r="AF112" s="13"/>
       <c r="AG112" s="13"/>
     </row>
-    <row r="113" spans="31:33">
+    <row r="113" spans="31:33" x14ac:dyDescent="0.25">
       <c r="AE113" s="13"/>
       <c r="AF113" s="13"/>
       <c r="AG113" s="13"/>
     </row>
-    <row r="114" spans="31:33">
+    <row r="114" spans="31:33" x14ac:dyDescent="0.25">
       <c r="AE114" s="13"/>
       <c r="AF114" s="13"/>
       <c r="AG114" s="13"/>
     </row>
-    <row r="115" spans="31:33">
+    <row r="115" spans="31:33" x14ac:dyDescent="0.25">
       <c r="AE115" s="13"/>
       <c r="AF115" s="13"/>
       <c r="AG115" s="13"/>
     </row>
-    <row r="116" spans="31:33">
+    <row r="116" spans="31:33" x14ac:dyDescent="0.25">
       <c r="AE116" s="13"/>
       <c r="AF116" s="13"/>
       <c r="AG116" s="13"/>
     </row>
-    <row r="117" spans="31:33">
+    <row r="117" spans="31:33" x14ac:dyDescent="0.25">
       <c r="AE117" s="13"/>
       <c r="AF117" s="13"/>
       <c r="AG117" s="13"/>
     </row>
-    <row r="118" spans="31:33">
+    <row r="118" spans="31:33" x14ac:dyDescent="0.25">
       <c r="AE118" s="13"/>
       <c r="AF118" s="13"/>
       <c r="AG118" s="13"/>
     </row>
-    <row r="119" spans="31:33">
+    <row r="119" spans="31:33" x14ac:dyDescent="0.25">
       <c r="AE119" s="13"/>
       <c r="AF119" s="13"/>
       <c r="AG119" s="13"/>
     </row>
-    <row r="120" spans="31:33">
+    <row r="120" spans="31:33" x14ac:dyDescent="0.25">
       <c r="AE120" s="13"/>
       <c r="AF120" s="13"/>
       <c r="AG120" s="13"/>
     </row>
-    <row r="121" spans="31:33">
+    <row r="121" spans="31:33" x14ac:dyDescent="0.25">
       <c r="AE121" s="13"/>
       <c r="AF121" s="13"/>
       <c r="AG121" s="13"/>
     </row>
-    <row r="122" spans="31:33">
+    <row r="122" spans="31:33" x14ac:dyDescent="0.25">
       <c r="AE122" s="13"/>
       <c r="AF122" s="13"/>
       <c r="AG122" s="13"/>
